--- a/Milestone Presentation/training_convergence.xlsx
+++ b/Milestone Presentation/training_convergence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="800" yWindow="20" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
